--- a/biology/Zoologie/Caerostris_sexcuspidata/Caerostris_sexcuspidata.xlsx
+++ b/biology/Zoologie/Caerostris_sexcuspidata/Caerostris_sexcuspidata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caerostris sexcuspidata est une espèce d'araignées aranéomorphes de la famille des Araneidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en zone afrotropicale. Elle vit dans les forêts humides.
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La femelle mesure 2 cm. Elle commune est la plus répandue des araignées d'écorce trouvées en Afrique australe et présente des variations considérables dans la forme de l'abdomen.  L'abdomen dépasse de la carapace, tandis que les huit petits yeux sont situés sur un tubercule à l'avant de la carapace.
 </t>
